--- a/Jogos_do_Dia/2023-09-26_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-26_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -642,52 +642,52 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
         <v>1.5</v>
@@ -757,52 +757,52 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J4" t="n">
         <v>1.06</v>
@@ -893,7 +893,7 @@
         <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.7</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -987,52 +987,52 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W5" t="n">
         <v>1.08</v>
@@ -1102,52 +1102,52 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="W6" t="n">
         <v>2</v>
@@ -1217,19 +1217,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="H7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
         <v>1.4</v>
@@ -1241,19 +1241,19 @@
         <v>2.15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="R7" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="T7" t="n">
         <v>1.19</v>
@@ -1289,7 +1289,7 @@
         <v>3.75</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF7" t="n">
         <v>1.61</v>
@@ -1301,7 +1301,7 @@
         <v>2.54</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="8">
@@ -1323,100 +1323,100 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FeralpiSalò</t>
+          <t>Cremonese</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="J8" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="K8" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="M8" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="N8" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2.45</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.55</v>
       </c>
-      <c r="Q8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R8" t="n">
+      <c r="U8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X8" t="n">
         <v>2</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.87</v>
+        <v>2.27</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.64</v>
+        <v>3.82</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="9">
@@ -1438,100 +1438,100 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>FeralpiSalò</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.1</v>
-      </c>
       <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N9" t="n">
         <v>2.4</v>
       </c>
-      <c r="J9" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH9" t="n">
         <v>2.2</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="10">
@@ -1562,13 +1562,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
@@ -1583,10 +1583,10 @@
         <v>2.95</v>
       </c>
       <c r="N10" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="O10" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="P10" t="n">
         <v>1.5</v>
@@ -1677,49 +1677,49 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1792,13 +1792,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="H12" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="J12" t="n">
         <v>1.02</v>
@@ -1813,10 +1813,10 @@
         <v>4.5</v>
       </c>
       <c r="N12" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="O12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P12" t="n">
         <v>1.3</v>
@@ -1882,7 +1882,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Serbia SuperLiga</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -1890,114 +1890,114 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:05:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bačka Topola</t>
+          <t>İstanbulspor</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>5.05</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4.22</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>5.17</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W13" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.85</v>
+        <v>0.85</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="AA13" t="n">
-        <v>3.22</v>
+        <v>2.4</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Switzerland Challenge League</t>
+          <t>Serbia SuperLiga</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2005,30 +2005,30 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:05:00</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Neuchâtel Xamax</t>
+          <t>Bačka Topola</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Baden</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>4.6</v>
+        <v>5.75</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -2043,46 +2043,46 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.46</v>
+        <v>1.75</v>
       </c>
       <c r="O14" t="n">
-        <v>2.46</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="S14" t="n">
-        <v>2.4</v>
+        <v>1.57</v>
       </c>
       <c r="T14" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="X14" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.59</v>
+        <v>1.85</v>
       </c>
       <c r="Z14" t="n">
-        <v>1</v>
+        <v>1.37</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.59</v>
+        <v>3.22</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -2128,76 +2128,76 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FC Schaffhausen</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.02</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.15</v>
+        <v>2.38</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="N15" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="O15" t="n">
-        <v>2.47</v>
+        <v>2.43</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R15" t="n">
         <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="T15" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="V15" t="n">
-        <v>1.72</v>
+        <v>1.44</v>
       </c>
       <c r="W15" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="X15" t="n">
-        <v>0.67</v>
+        <v>2.25</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
@@ -2243,76 +2243,76 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Neuchâtel Xamax</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Baden</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K16" t="n">
+        <v>13</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="O16" t="n">
         <v>2.65</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2.43</v>
-      </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="R16" t="n">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="S16" t="n">
-        <v>2.65</v>
+        <v>2.1</v>
       </c>
       <c r="T16" t="n">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="U16" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="V16" t="n">
-        <v>1.45</v>
+        <v>2.4</v>
       </c>
       <c r="W16" t="n">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="X16" t="n">
-        <v>2.25</v>
+        <v>0.33</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.23</v>
+        <v>1.59</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.52</v>
+        <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>2.75</v>
+        <v>2.59</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -2342,7 +2342,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Switzerland Challenge League</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2354,104 +2354,104 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>İstanbulspor</t>
+          <t>FC Schaffhausen</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.7</v>
+        <v>2.05</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>1.62</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="n">
         <v>1.02</v>
       </c>
       <c r="K17" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L17" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="M17" t="n">
-        <v>5.17</v>
+        <v>4.75</v>
       </c>
       <c r="N17" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="O17" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="P17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="S17" t="n">
         <v>2.25</v>
       </c>
       <c r="T17" t="n">
-        <v>2.65</v>
+        <v>1.28</v>
       </c>
       <c r="U17" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.17</v>
+        <v>1.72</v>
       </c>
       <c r="W17" t="n">
         <v>0.5</v>
       </c>
       <c r="X17" t="n">
-        <v>2.33</v>
+        <v>0.67</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.85</v>
+        <v>1.27</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.32</v>
+        <v>2.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2473,106 +2473,106 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Reggiana</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Brescia</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="H18" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.65</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="K18" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="M18" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="N18" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="O18" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="P18" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="R18" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S18" t="n">
         <v>1.83</v>
       </c>
       <c r="T18" t="n">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="U18" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="V18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF18" t="n">
         <v>1.42</v>
       </c>
-      <c r="W18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Switzerland Super League</t>
+          <t>Italy Serie B</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -2584,104 +2584,104 @@
         </is>
       </c>
       <c r="D19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K19" t="n">
         <v>8</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Zürich</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Grasshopper</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K19" t="n">
-        <v>14.5</v>
-      </c>
       <c r="L19" t="n">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="M19" t="n">
-        <v>4.13</v>
+        <v>2.95</v>
       </c>
       <c r="N19" t="n">
-        <v>1.7</v>
+        <v>2.07</v>
       </c>
       <c r="O19" t="n">
-        <v>2.03</v>
+        <v>1.59</v>
       </c>
       <c r="P19" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="R19" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="S19" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="T19" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U19" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="V19" t="n">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="W19" t="n">
         <v>2.33</v>
       </c>
       <c r="X19" t="n">
-        <v>0.33</v>
+        <v>2.33</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.37</v>
+        <v>1.64</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.94</v>
+        <v>3.06</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="20">
@@ -2703,28 +2703,28 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Südtirol</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Modena</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I20" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="J20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
         <v>1.4</v>
@@ -2733,10 +2733,10 @@
         <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>2.09</v>
+        <v>2.03</v>
       </c>
       <c r="O20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P20" t="n">
         <v>1.45</v>
@@ -2745,58 +2745,58 @@
         <v>2.55</v>
       </c>
       <c r="R20" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S20" t="n">
         <v>1.85</v>
       </c>
       <c r="T20" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z20" t="n">
         <v>1.62</v>
       </c>
-      <c r="W20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
+      <c r="AA20" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF20" t="n">
         <v>1.44</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AG20" t="n">
         <v>1.78</v>
       </c>
-      <c r="AA20" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
-      </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="21">
@@ -2818,106 +2818,106 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Venezia</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.17</v>
+        <v>2.38</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.4</v>
       </c>
       <c r="M21" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>2.14</v>
+        <v>2.03</v>
       </c>
       <c r="O21" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="P21" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="R21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S21" t="n">
         <v>1.85</v>
       </c>
-      <c r="S21" t="n">
-        <v>1.83</v>
-      </c>
       <c r="T21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V21" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="W21" t="n">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="X21" t="n">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="AA21" t="n">
-        <v>3.06</v>
+        <v>3.22</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italy Serie B</t>
+          <t>Switzerland Super League</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
@@ -2929,104 +2929,104 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Zürich</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Brescia</t>
+          <t>Grasshopper</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="H22" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J22" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K22" t="n">
-        <v>8.5</v>
+        <v>14.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="M22" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q22" t="n">
         <v>3.1</v>
       </c>
-      <c r="N22" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.6</v>
-      </c>
       <c r="R22" t="n">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="S22" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U22" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="V22" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="X22" t="n">
-        <v>3</v>
+        <v>0.33</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="AA22" t="n">
-        <v>2.49</v>
+        <v>2.94</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="23">
@@ -3048,100 +3048,100 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Südtirol</t>
+          <t>Reggiana</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Modena</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="G23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2.45</v>
       </c>
-      <c r="H23" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K23" t="n">
-        <v>8</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P23" t="n">
+      <c r="R23" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T23" t="n">
         <v>1.45</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.4</v>
       </c>
       <c r="U23" t="n">
         <v>1.3</v>
       </c>
       <c r="V23" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="X23" t="n">
         <v>2</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.62</v>
+        <v>1.15</v>
       </c>
       <c r="AA23" t="n">
-        <v>2.74</v>
+        <v>2.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="24">
@@ -3163,76 +3163,76 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Grenoble Foot 38</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="H24" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2.8</v>
       </c>
-      <c r="N24" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.4</v>
-      </c>
       <c r="R24" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S24" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="T24" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U24" t="n">
         <v>1.2</v>
       </c>
-      <c r="U24" t="n">
-        <v>1.29</v>
-      </c>
       <c r="V24" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="X24" t="n">
         <v>1.67</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.61</v>
+        <v>1.39</v>
       </c>
       <c r="AA24" t="n">
-        <v>3.23</v>
+        <v>3.11</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
@@ -3278,22 +3278,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cardiff MU</t>
+          <t>Connah's Quay</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -3308,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -3335,19 +3335,19 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="X25" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.2</v>
+        <v>1.83</v>
       </c>
       <c r="Z25" t="n">
         <v>1.2</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.4</v>
+        <v>3.03</v>
       </c>
       <c r="AB25" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -3538,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="H28" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J28" t="n">
         <v>1.09</v>
@@ -3653,10 +3653,10 @@
         <v>2.75</v>
       </c>
       <c r="N28" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="P28" t="n">
         <v>1.53</v>
@@ -3686,13 +3686,13 @@
         <v>1</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="Z28" t="n">
         <v>1.04</v>
       </c>
       <c r="AA28" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AB28" t="n">
         <v>0</v>
@@ -3747,13 +3747,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="H29" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I29" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="J29" t="n">
         <v>1.07</v>
@@ -3768,10 +3768,10 @@
         <v>3.1</v>
       </c>
       <c r="N29" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="P29" t="n">
         <v>1.44</v>
@@ -3810,34 +3810,34 @@
         <v>2.88</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Wales Welsh Premier League</t>
+          <t>France Ligue 2</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
@@ -3849,104 +3849,104 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Connah's Quay</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Grenoble Foot 38</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="W30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X30" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="AA30" t="n">
-        <v>3.03</v>
+        <v>3.23</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="31">
@@ -3977,10 +3977,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H31" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="I31" t="n">
         <v>2.55</v>
@@ -3998,10 +3998,10 @@
         <v>3.1</v>
       </c>
       <c r="N31" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="O31" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="P31" t="n">
         <v>1.42</v>
@@ -4040,28 +4040,28 @@
         <v>3.51</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="32">
@@ -4092,10 +4092,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I32" t="n">
         <v>2.6</v>
@@ -4113,10 +4113,10 @@
         <v>3.1</v>
       </c>
       <c r="N32" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O32" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="P32" t="n">
         <v>1.45</v>
@@ -4155,28 +4155,28 @@
         <v>2.6</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="33">
@@ -4207,13 +4207,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H33" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I33" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="J33" t="n">
         <v>1.08</v>
@@ -4228,10 +4228,10 @@
         <v>3</v>
       </c>
       <c r="N33" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="O33" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="P33" t="n">
         <v>1.48</v>
@@ -4322,13 +4322,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I34" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3.45</v>
       </c>
       <c r="J34" t="n">
         <v>1.07</v>
@@ -4343,10 +4343,10 @@
         <v>3.2</v>
       </c>
       <c r="N34" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="O34" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="P34" t="n">
         <v>1.42</v>
@@ -4437,13 +4437,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H35" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="I35" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="J35" t="n">
         <v>1.05</v>
@@ -4458,10 +4458,10 @@
         <v>3.6</v>
       </c>
       <c r="N35" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="O35" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="P35" t="n">
         <v>1.4</v>
@@ -4552,13 +4552,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
         <v>1.09</v>
@@ -4573,10 +4573,10 @@
         <v>2.7</v>
       </c>
       <c r="N36" t="n">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="O36" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P36" t="n">
         <v>1.53</v>
@@ -4658,22 +4658,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Cardiff MU</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -4688,10 +4688,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -4718,16 +4718,16 @@
         <v>1.75</v>
       </c>
       <c r="X37" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="Z37" t="n">
-        <v>2.33</v>
+        <v>1.2</v>
       </c>
       <c r="AA37" t="n">
-        <v>3.81</v>
+        <v>2.4</v>
       </c>
       <c r="AB37" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>France Ligue 2</t>
+          <t>Wales Welsh Premier League</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
@@ -4769,80 +4769,80 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.62</v>
+        <v>10</v>
       </c>
       <c r="H38" t="n">
-        <v>3.9</v>
+        <v>6</v>
       </c>
       <c r="I38" t="n">
-        <v>5.6</v>
+        <v>1.18</v>
       </c>
       <c r="J38" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1.93</v>
+        <v>1.33</v>
       </c>
       <c r="O38" t="n">
-        <v>1.88</v>
+        <v>3.4</v>
       </c>
       <c r="P38" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.67</v>
+        <v>1.75</v>
       </c>
       <c r="X38" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.72</v>
+        <v>1.48</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.26</v>
+        <v>2.33</v>
       </c>
       <c r="AA38" t="n">
-        <v>2.98</v>
+        <v>3.81</v>
       </c>
       <c r="AB38" t="n">
         <v>0</v>
@@ -4897,7 +4897,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="H39" t="n">
         <v>4</v>
@@ -4918,10 +4918,10 @@
         <v>4.3</v>
       </c>
       <c r="N39" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="O39" t="n">
-        <v>2.03</v>
+        <v>2.25</v>
       </c>
       <c r="P39" t="n">
         <v>1.3</v>
@@ -5012,13 +5012,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H40" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="J40" t="n">
         <v>1.04</v>
@@ -5033,10 +5033,10 @@
         <v>3.75</v>
       </c>
       <c r="N40" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="O40" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="P40" t="n">
         <v>1.36</v>

--- a/Jogos_do_Dia/2023-09-26_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-09-26_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI40"/>
+  <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,82 +470,82 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>FT_Odds_H</t>
+          <t>Odd_H_FT</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>FT_Odds_D</t>
+          <t>Odd_D_FT</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>FT_Odds_A</t>
+          <t>Odd_A_FT</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>FT_Odds_Over05</t>
+          <t>Odd_Over05_FT</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>FT_Odds_Under05</t>
+          <t>Odd_Under05_FT</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>FT_Odds_Over15</t>
+          <t>Odd_Over15_FT</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>FT_Odds_Under15</t>
+          <t>Odd_Under15_FT</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>FT_Odds_Over25</t>
+          <t>Odd_Over25_FT</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>FT_Odds_Under25</t>
+          <t>Odd_Under25_FT</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>HT_Odds_Over05</t>
+          <t>Odd_Over05_HT</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>HT_Odds_Under05</t>
+          <t>Odd_Under05_HT</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Odds_BTTS_Yes</t>
+          <t>Odd_BTTS_Yes</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Odds_BTTS_No</t>
+          <t>Odd_BTTS_No</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Odds_DuplaChance_1X</t>
+          <t>Odd_DC_1X</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Odds_DuplaChance_12</t>
+          <t>Odd_DC_12</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Odds_DuplaChance_X2</t>
+          <t>Odd_DC_X2</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
@@ -571,46 +571,6 @@
       <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>XG_Total_Pre</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Odds_Corners_H</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Odds_Corners_D</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Odds_Corners_A</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Odds_Corners_Over75</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Odds_Corners_Over85</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Odds_Corners_Over95</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odds_Corners_Over105</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odds_Corners_Over115</t>
         </is>
       </c>
     </row>
@@ -642,10 +602,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>3.6</v>
@@ -663,10 +623,10 @@
         <v>2.65</v>
       </c>
       <c r="N2" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="O2" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="P2" t="n">
         <v>1.5</v>
@@ -703,30 +663,6 @@
       </c>
       <c r="AA2" t="n">
         <v>2.56</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -757,13 +693,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.13</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
         <v>1.09</v>
@@ -772,13 +708,13 @@
         <v>6.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M3" t="n">
-        <v>2.47</v>
+        <v>2.48</v>
       </c>
       <c r="N3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -790,10 +726,10 @@
         <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
         <v>1.33</v>
@@ -808,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,30 +753,6 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -872,13 +784,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>4.95</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I4" t="n">
-        <v>1.75</v>
+        <v>1.59</v>
       </c>
       <c r="J4" t="n">
         <v>1.06</v>
@@ -893,10 +805,10 @@
         <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="O4" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="P4" t="n">
         <v>1.44</v>
@@ -920,10 +832,10 @@
         <v>1.14</v>
       </c>
       <c r="W4" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Y4" t="n">
         <v>1.04</v>
@@ -933,30 +845,6 @@
       </c>
       <c r="AA4" t="n">
         <v>2.21</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -987,13 +875,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.4</v>
+        <v>4.75</v>
       </c>
       <c r="H5" t="n">
-        <v>4.45</v>
+        <v>4.05</v>
       </c>
       <c r="I5" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="J5" t="n">
         <v>1.01</v>
@@ -1008,10 +896,10 @@
         <v>4.75</v>
       </c>
       <c r="N5" t="n">
-        <v>1.71</v>
+        <v>1.51</v>
       </c>
       <c r="O5" t="n">
-        <v>2.02</v>
+        <v>2.11</v>
       </c>
       <c r="P5" t="n">
         <v>1.26</v>
@@ -1048,30 +936,6 @@
       </c>
       <c r="AA5" t="n">
         <v>3.09</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1102,13 +966,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
@@ -1123,10 +987,10 @@
         <v>3.6</v>
       </c>
       <c r="N6" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="O6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="P6" t="n">
         <v>1.36</v>
@@ -1163,30 +1027,6 @@
       </c>
       <c r="AA6" t="n">
         <v>3</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1217,13 +1057,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
         <v>1.07</v>
@@ -1241,7 +1081,7 @@
         <v>2.15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="P7" t="n">
         <v>1.5</v>
@@ -1278,30 +1118,6 @@
       </c>
       <c r="AA7" t="n">
         <v>0</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>3.2</v>
       </c>
     </row>
     <row r="8">
@@ -1332,13 +1148,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J8" t="n">
         <v>1.09</v>
@@ -1353,10 +1169,10 @@
         <v>2.88</v>
       </c>
       <c r="N8" t="n">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="P8" t="n">
         <v>1.48</v>
@@ -1393,30 +1209,6 @@
       </c>
       <c r="AA8" t="n">
         <v>3.82</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>3.3</v>
       </c>
     </row>
     <row r="9">
@@ -1468,10 +1260,10 @@
         <v>2.6</v>
       </c>
       <c r="N9" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="P9" t="n">
         <v>1.55</v>
@@ -1508,30 +1300,6 @@
       </c>
       <c r="AA9" t="n">
         <v>2.64</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>2.95</v>
       </c>
     </row>
     <row r="10">
@@ -1562,10 +1330,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
         <v>4.75</v>
@@ -1583,10 +1351,10 @@
         <v>2.95</v>
       </c>
       <c r="N10" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="P10" t="n">
         <v>1.5</v>
@@ -1623,30 +1391,6 @@
       </c>
       <c r="AA10" t="n">
         <v>3.07</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>3.74</v>
       </c>
     </row>
     <row r="11">
@@ -1677,16 +1421,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>12.75</v>
+        <v>11</v>
       </c>
       <c r="H11" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
         <v>1.15</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K11" t="n">
         <v>10.75</v>
@@ -1698,10 +1442,10 @@
         <v>5</v>
       </c>
       <c r="N11" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="O11" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="P11" t="n">
         <v>1.23</v>
@@ -1722,7 +1466,7 @@
         <v>1.03</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="W11" t="n">
         <v>0.57</v>
@@ -1738,30 +1482,6 @@
       </c>
       <c r="AA11" t="n">
         <v>3.18</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1854,30 +1574,6 @@
       <c r="AA12" t="n">
         <v>3.19</v>
       </c>
-      <c r="AB12" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>3.45</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1907,13 +1603,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.05</v>
+        <v>5.1</v>
       </c>
       <c r="H13" t="n">
-        <v>4.22</v>
+        <v>4.4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="J13" t="n">
         <v>1.02</v>
@@ -1928,10 +1624,10 @@
         <v>5.17</v>
       </c>
       <c r="N13" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="O13" t="n">
-        <v>2.32</v>
+        <v>2.47</v>
       </c>
       <c r="P13" t="n">
         <v>1.3</v>
@@ -1968,30 +1664,6 @@
       </c>
       <c r="AA13" t="n">
         <v>2.4</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -2022,25 +1694,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I14" t="n">
-        <v>5.75</v>
+        <v>8.5</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="N14" t="n">
         <v>1.75</v>
@@ -2061,13 +1733,13 @@
         <v>1.57</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="W14" t="n">
         <v>2.5</v>
@@ -2083,30 +1755,6 @@
       </c>
       <c r="AA14" t="n">
         <v>3.22</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2128,28 +1776,28 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Neuchâtel Xamax</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Baden</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>1.57</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="I15" t="n">
-        <v>2.38</v>
+        <v>4.75</v>
       </c>
       <c r="J15" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L15" t="n">
         <v>1.15</v>
@@ -2161,67 +1809,43 @@
         <v>1.47</v>
       </c>
       <c r="O15" t="n">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="P15" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="U15" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="V15" t="n">
-        <v>1.44</v>
+        <v>2.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="X15" t="n">
-        <v>2.25</v>
+        <v>0.33</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.23</v>
+        <v>1.59</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.52</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="16">
@@ -2243,100 +1867,76 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Neuchâtel Xamax</t>
+          <t>FC Schaffhausen</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Baden</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="H16" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="I16" t="n">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
         <v>1.02</v>
       </c>
       <c r="K16" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L16" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="M16" t="n">
         <v>4.75</v>
       </c>
       <c r="N16" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="O16" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="P16" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R16" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="U16" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="V16" t="n">
-        <v>2.4</v>
+        <v>1.72</v>
       </c>
       <c r="W16" t="n">
-        <v>2.33</v>
+        <v>0.5</v>
       </c>
       <c r="X16" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.59</v>
+        <v>1.27</v>
       </c>
       <c r="Z16" t="n">
-        <v>1</v>
+        <v>1.43</v>
       </c>
       <c r="AA16" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="17">
@@ -2358,100 +1958,76 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FC Schaffhausen</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>3.3</v>
+        <v>2.35</v>
       </c>
       <c r="J17" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L17" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="M17" t="n">
         <v>4.75</v>
       </c>
       <c r="N17" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="O17" t="n">
-        <v>2.34</v>
+        <v>2.45</v>
       </c>
       <c r="P17" t="n">
         <v>1.29</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X17" t="n">
         <v>2.25</v>
       </c>
-      <c r="T17" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.67</v>
-      </c>
       <c r="Y17" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="18">
@@ -2482,13 +2058,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J18" t="n">
         <v>1.07</v>
@@ -2503,10 +2079,10 @@
         <v>3.1</v>
       </c>
       <c r="N18" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="P18" t="n">
         <v>1.44</v>
@@ -2543,30 +2119,6 @@
       </c>
       <c r="AA18" t="n">
         <v>2.49</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>2.88</v>
       </c>
     </row>
     <row r="19">
@@ -2597,13 +2149,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J19" t="n">
         <v>1.08</v>
@@ -2618,10 +2170,10 @@
         <v>2.95</v>
       </c>
       <c r="N19" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="P19" t="n">
         <v>1.48</v>
@@ -2658,30 +2210,6 @@
       </c>
       <c r="AA19" t="n">
         <v>3.06</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>2.44</v>
       </c>
     </row>
     <row r="20">
@@ -2712,13 +2240,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="H20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I20" t="n">
         <v>2.9</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.75</v>
       </c>
       <c r="J20" t="n">
         <v>1.08</v>
@@ -2733,10 +2261,10 @@
         <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="P20" t="n">
         <v>1.45</v>
@@ -2773,30 +2301,6 @@
       </c>
       <c r="AA20" t="n">
         <v>2.74</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>2.98</v>
       </c>
     </row>
     <row r="21">
@@ -2827,13 +2331,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H21" t="n">
         <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J21" t="n">
         <v>1.07</v>
@@ -2848,10 +2352,10 @@
         <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="P21" t="n">
         <v>1.45</v>
@@ -2888,30 +2392,6 @@
       </c>
       <c r="AA21" t="n">
         <v>3.22</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>2.76</v>
       </c>
     </row>
     <row r="22">
@@ -3004,30 +2484,6 @@
       <c r="AA22" t="n">
         <v>2.94</v>
       </c>
-      <c r="AB22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>2.3</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3057,13 +2513,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H23" t="n">
         <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="J23" t="n">
         <v>1.09</v>
@@ -3078,10 +2534,10 @@
         <v>2.85</v>
       </c>
       <c r="N23" t="n">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="O23" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="P23" t="n">
         <v>1.48</v>
@@ -3118,30 +2574,6 @@
       </c>
       <c r="AA23" t="n">
         <v>2.3</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>3.7</v>
       </c>
     </row>
     <row r="24">
@@ -3172,10 +2604,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I24" t="n">
         <v>5.5</v>
@@ -3193,10 +2625,10 @@
         <v>3.5</v>
       </c>
       <c r="N24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O24" t="n">
         <v>1.85</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.8</v>
       </c>
       <c r="P24" t="n">
         <v>1.38</v>
@@ -3233,36 +2665,12 @@
       </c>
       <c r="AA24" t="n">
         <v>3.11</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Wales Welsh Premier League</t>
+          <t>France Ligue 2</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -3274,104 +2682,80 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Connah's Quay</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Colwyn Bay</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T25" t="n">
         <v>1.25</v>
       </c>
-      <c r="H25" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="U25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AA25" t="n">
         <v>2.88</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>3</v>
-      </c>
-      <c r="X25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3393,100 +2777,76 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Penybont</t>
+          <t>Connah's Quay</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Barry Town United</t>
+          <t>Colwyn Bay</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>12</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W26" t="n">
+        <v>3</v>
+      </c>
+      <c r="X26" t="n">
         <v>1.33</v>
       </c>
-      <c r="H26" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O26" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.25</v>
-      </c>
       <c r="Y26" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AA26" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="27">
@@ -3508,106 +2868,82 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pontypridd Town AFC</t>
+          <t>Cardiff MU</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.63</v>
+        <v>1.88</v>
       </c>
       <c r="H27" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K27" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M27" t="n">
         <v>3.4</v>
       </c>
-      <c r="I27" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
       <c r="N27" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R27" t="n">
         <v>1.7</v>
       </c>
-      <c r="O27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="W27" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="X27" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AA27" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>France Ligue 2</t>
+          <t>Wales Welsh Premier League</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
@@ -3619,104 +2955,80 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Amiens SC</t>
+          <t>Caernarfon Town</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ajaccio</t>
+          <t>The New Saints</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.2</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>12</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="M28" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="O28" t="n">
         <v>3.4</v>
       </c>
-      <c r="J28" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.5</v>
-      </c>
       <c r="P28" t="n">
-        <v>1.53</v>
+        <v>1.19</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.38</v>
+        <v>4.33</v>
       </c>
       <c r="R28" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="S28" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="T28" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="U28" t="n">
-        <v>1.3</v>
+        <v>1.08</v>
       </c>
       <c r="V28" t="n">
-        <v>1.65</v>
+        <v>1.06</v>
       </c>
       <c r="W28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X28" t="n">
         <v>2.5</v>
       </c>
-      <c r="X28" t="n">
-        <v>1</v>
-      </c>
       <c r="Y28" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.04</v>
+        <v>2.33</v>
       </c>
       <c r="AA28" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="29">
@@ -3738,100 +3050,76 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Amiens SC</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Ajaccio</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="H29" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="J29" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="K29" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="M29" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="O29" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="P29" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="R29" t="n">
         <v>1.95</v>
       </c>
       <c r="S29" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T29" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U29" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="V29" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="W29" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="X29" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.7</v>
+        <v>1.41</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.18</v>
+        <v>1.04</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="30">
@@ -3853,100 +3141,76 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Grenoble Foot 38</t>
+          <t>Bordeaux</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.83</v>
+        <v>2.7</v>
       </c>
       <c r="H30" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="J30" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="K30" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="L30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V30" t="n">
         <v>1.45</v>
-      </c>
-      <c r="M30" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.85</v>
       </c>
       <c r="W30" t="n">
         <v>2</v>
       </c>
       <c r="X30" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="AA30" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>4.45</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="31">
@@ -3968,100 +3232,76 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Grenoble Foot 38</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.7</v>
+        <v>1.83</v>
       </c>
       <c r="H31" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="J31" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="K31" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="M31" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O31" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S31" t="n">
         <v>1.67</v>
       </c>
-      <c r="P31" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T31" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="U31" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V31" t="n">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="W31" t="n">
         <v>2</v>
       </c>
       <c r="X31" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="AA31" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>4.95</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="32">
@@ -4083,100 +3323,76 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="H32" t="n">
         <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="J32" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="K32" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="M32" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N32" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="O32" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="P32" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="R32" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S32" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="T32" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="U32" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V32" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="W32" t="n">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="X32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Z32" t="n">
         <v>1.33</v>
       </c>
-      <c r="Y32" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AA32" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>4.35</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="33">
@@ -4198,100 +3414,76 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Angers SCO</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="H33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I33" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J33" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K33" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N33" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="O33" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="P33" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T33" t="n">
         <v>1.48</v>
       </c>
-      <c r="Q33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.45</v>
-      </c>
       <c r="U33" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V33" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W33" t="n">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="X33" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.11</v>
+        <v>1.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="34">
@@ -4313,106 +3505,82 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Troyes</t>
+          <t>Angers SCO</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>2.65</v>
       </c>
       <c r="H34" t="n">
         <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3.4</v>
+        <v>2.65</v>
       </c>
       <c r="J34" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L34" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M34" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P34" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="S34" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="T34" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U34" t="n">
         <v>1.3</v>
       </c>
-      <c r="U34" t="n">
-        <v>1.29</v>
-      </c>
       <c r="V34" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="W34" t="n">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="X34" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.97</v>
+        <v>1.6</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AA34" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>France Ligue 2</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
@@ -4424,110 +3592,86 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Troyes</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.43</v>
+        <v>2.05</v>
       </c>
       <c r="H35" t="n">
-        <v>4.45</v>
+        <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>7.9</v>
+        <v>3.6</v>
       </c>
       <c r="J35" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K35" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="L35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T35" t="n">
         <v>1.3</v>
       </c>
-      <c r="M35" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.09</v>
-      </c>
       <c r="U35" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="V35" t="n">
-        <v>2.75</v>
+        <v>1.7</v>
       </c>
       <c r="W35" t="n">
         <v>2</v>
       </c>
       <c r="X35" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.69</v>
+        <v>1.97</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.8</v>
+        <v>1.13</v>
       </c>
       <c r="AA35" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>France Ligue 2</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
@@ -4539,104 +3683,80 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>1.43</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>4.45</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>7.9</v>
       </c>
       <c r="J36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K36" t="n">
+        <v>12</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T36" t="n">
         <v>1.09</v>
       </c>
-      <c r="K36" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M36" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.36</v>
-      </c>
       <c r="U36" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="V36" t="n">
-        <v>1.55</v>
+        <v>2.75</v>
       </c>
       <c r="W36" t="n">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="X36" t="n">
         <v>1</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.35</v>
+        <v>1.69</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="AA36" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="37">
@@ -4658,100 +3778,76 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Cardiff MU</t>
+          <t>Pontypridd Town AFC</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.91</v>
+        <v>2.55</v>
       </c>
       <c r="H37" t="n">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="I37" t="n">
-        <v>3.6</v>
+        <v>2.22</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="N37" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="O37" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="W37" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="X37" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AA37" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="38">
@@ -4773,100 +3869,76 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Caernarfon Town</t>
+          <t>Penybont</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>The New Saints</t>
+          <t>Barry Town United</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>10</v>
+        <v>1.34</v>
       </c>
       <c r="H38" t="n">
-        <v>6</v>
+        <v>4.15</v>
       </c>
       <c r="I38" t="n">
-        <v>1.18</v>
+        <v>6.12</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="N38" t="n">
-        <v>1.33</v>
+        <v>1.7</v>
       </c>
       <c r="O38" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="W38" t="n">
         <v>1.75</v>
       </c>
       <c r="X38" t="n">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.48</v>
+        <v>1.89</v>
       </c>
       <c r="Z38" t="n">
-        <v>2.33</v>
+        <v>1.17</v>
       </c>
       <c r="AA38" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>0</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="39">
@@ -4897,13 +3969,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>4.07</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>4.24</v>
       </c>
       <c r="J39" t="n">
         <v>1.01</v>
@@ -4958,30 +4030,6 @@
       </c>
       <c r="AA39" t="n">
         <v>3.15</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -5073,30 +4121,6 @@
       </c>
       <c r="AA40" t="n">
         <v>2.46</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>4.35</v>
       </c>
     </row>
   </sheetData>
